--- a/users.xlsx
+++ b/users.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Adress1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Zipcode</t>
+          <t>Adress2</t>
         </is>
       </c>
     </row>
